--- a/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
+++ b/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -252,11 +252,6 @@
     <font>
       <b/>
       <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -311,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -321,31 +316,25 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -601,1821 +590,1821 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M2" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="A2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O2" s="6">
         <v>2.0</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="10" t="b">
+      <c r="U2" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <f t="shared" ref="A3:A28" si="1">A2 +1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O3" s="6">
         <v>2.0</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="10" t="b">
+      <c r="U3" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="6">
         <v>2.0</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="10" t="b">
+      <c r="U4" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="6">
         <v>2.0</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="10" t="b">
+      <c r="U5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="6">
         <v>2.0</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="10" t="b">
+      <c r="U6" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="6">
         <v>2.0</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="10" t="b">
+      <c r="U7" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="6">
         <v>2.0</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U8" s="10" t="b">
+      <c r="U8" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="6">
         <v>2.0</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="10" t="b">
+      <c r="U9" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="6">
         <v>2.0</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="10" t="b">
+      <c r="U10" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="6">
         <v>2.0</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="10" t="b">
+      <c r="U11" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="6">
         <v>2.0</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="10" t="b">
+      <c r="U12" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="6">
         <v>2.0</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="10" t="b">
+      <c r="U13" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O14" s="6">
         <v>2.0</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="10" t="b">
+      <c r="U14" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="6">
         <v>2.0</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="10" t="b">
+      <c r="U15" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O16" s="6">
         <v>2.0</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="10" t="b">
+      <c r="U16" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O17" s="6">
         <v>2.0</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="10" t="b">
+      <c r="U17" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O18" s="6">
         <v>2.0</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="R18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U18" s="10" t="b">
+      <c r="U18" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="6">
         <v>2.0</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="R19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="10" t="b">
+      <c r="U19" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O20" s="6">
         <v>2.0</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="R20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U20" s="10" t="b">
+      <c r="U20" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O21" s="6">
         <v>2.0</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="10" t="b">
+      <c r="U21" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O22" s="6">
         <v>2.0</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="10" t="b">
+      <c r="U22" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O23" s="6">
         <v>2.0</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="R23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U23" s="10" t="b">
+      <c r="U23" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="6">
         <v>2.0</v>
       </c>
-      <c r="P24" s="9" t="s">
+      <c r="P24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="R24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="10" t="b">
+      <c r="U24" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="6">
         <v>2.0</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="T25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U25" s="10" t="b">
+      <c r="U25" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N26" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="8">
+      <c r="B26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O26" s="6">
         <v>2.0</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="R26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="10" t="b">
+      <c r="U26" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O27" s="6">
         <v>2.0</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U27" s="10" t="b">
+      <c r="U27" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O28" s="6">
         <v>2.0</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="P28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="R28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="10" t="b">
+      <c r="U28" s="8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
+++ b/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="문자 데이터  빨=string" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="세부값 데이터  초=float 노=int 파=bool 보" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="값 데이터  초=float 노=int 파=bool 보=범" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -194,7 +194,7 @@
 효과 데이터 Value
 0 = 효과 없음 
 실수 값으로 효과 수치 변화
-문자에 들어갈 값 = {0}
+문자에 들어갈 값 = {}
 ======</t>
       </text>
     </comment>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="170">
   <si>
     <t>Index</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>"Guardian Armor"</t>
+  </si>
+  <si>
+    <t>"전체 아군의 체력의 ({0} * 100)%% 만큼 방어막을 즉시 생성한다."</t>
   </si>
   <si>
     <t>"인내의 광채"</t>
@@ -1622,7 +1625,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
@@ -1654,16 +1657,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>11</v>
@@ -1692,16 +1695,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>11</v>
@@ -1730,16 +1733,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>11</v>
@@ -1768,22 +1771,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1806,22 +1809,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1844,16 +1847,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>11</v>
@@ -1882,16 +1885,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>11</v>
@@ -1920,16 +1923,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>11</v>
@@ -1958,16 +1961,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>11</v>
@@ -1996,16 +1999,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>11</v>
@@ -2034,16 +2037,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>11</v>
@@ -2072,16 +2075,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>11</v>
@@ -2110,22 +2113,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2174,22 +2177,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -2212,22 +2215,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -2248,22 +2251,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -2284,22 +2287,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7"/>
       <c r="K29" s="6"/>
@@ -2315,22 +2318,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H30" s="7"/>
       <c r="K30" s="6"/>
@@ -2346,22 +2349,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H31" s="7"/>
       <c r="K31" s="6"/>
@@ -2377,22 +2380,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7"/>
       <c r="K32" s="6"/>
@@ -2408,22 +2411,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H33" s="7"/>
       <c r="K33" s="6"/>
@@ -2439,22 +2442,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7"/>
       <c r="K34" s="6"/>
@@ -2470,22 +2473,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="7"/>
       <c r="K35" s="6"/>
@@ -2501,22 +2504,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7"/>
       <c r="K36" s="6"/>
@@ -2532,22 +2535,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7"/>
       <c r="K37" s="6"/>
@@ -2563,22 +2566,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H38" s="7"/>
       <c r="K38" s="6"/>
@@ -3580,49 +3583,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">

--- a/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
+++ b/02_데이터베이스(게임 테이블)/03. 데이터베이스_테이블 _ 카드.xlsx
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="176">
   <si>
     <t>Index</t>
   </si>
@@ -942,6 +942,24 @@
   </si>
   <si>
     <t>effectCount</t>
+  </si>
+  <si>
+    <t>sCharAttackSpeed</t>
+  </si>
+  <si>
+    <t>fCharAttackSpeed</t>
+  </si>
+  <si>
+    <t>iCharAttackSpeed</t>
+  </si>
+  <si>
+    <t>dblCharAttackSpeed</t>
+  </si>
+  <si>
+    <t>bolCharAttackSpeed</t>
+  </si>
+  <si>
+    <t>CharAttackSpeed</t>
   </si>
 </sst>
 </file>
@@ -3775,6 +3793,9 @@
       <c r="Q1" s="17" t="s">
         <v>169</v>
       </c>
+      <c r="S1" s="13" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
@@ -3814,6 +3835,9 @@
       <c r="Q2" s="21">
         <v>0.0</v>
       </c>
+      <c r="S2" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
@@ -3854,6 +3878,9 @@
       <c r="Q3" s="22">
         <v>0.0</v>
       </c>
+      <c r="S3" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
@@ -3894,6 +3921,9 @@
       <c r="Q4" s="22">
         <v>0.0</v>
       </c>
+      <c r="S4" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
@@ -3934,6 +3964,9 @@
       <c r="Q5" s="22">
         <v>0.0</v>
       </c>
+      <c r="S5" s="13" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
@@ -3973,6 +4006,9 @@
       </c>
       <c r="Q6" s="22">
         <v>0.0</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7">
